--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cambio Tecnológico y Optimización Operacional Sistema de Tratamiento de RILES Viña Los Vascos</t>
+          <t>Planta de Compostaje Viña Los Vascos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146864656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156949842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Newentún</t>
+          <t>Cambio Tecnológico y Optimización Operacional Sistema de Tratamiento de RILES Viña Los Vascos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Solar TI Tres SpA.</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>400</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142552324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146864656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
+          <t>Parque Solar Newentún</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Solar TI Tres SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142552324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Disposición de Riles y Continuidad Operacional Bodega Peralillo</t>
+          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133433922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de efluente de lavado de maquinaría de productos fitosanitario</t>
+          <t>Optimización Sistema de Disposición de Riles y Continuidad Operacional Bodega Peralillo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132656175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133433922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
+          <t>Sistema de tratamiento de efluente de lavado de maquinaría de productos fitosanitario</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/05/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132428451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132656175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/05/2017</t>
+          <t>25/05/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132393819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132428451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31/03/2017</t>
+          <t>15/05/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132268506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132393819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05/01/2017</t>
+          <t>31/03/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132040768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132268506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE TRATAMIENTO DE RESIDUOS ESPECIALES PROVENIENTES DE ESTABLECIMIENTOS DE SALUD</t>
+          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>05/01/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132040768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131346026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
+          <t>AUMENTO DE CAPACIDAD DE TRATAMIENTO DE RESIDUOS ESPECIALES PROVENIENTES DE ESTABLECIMIENTOS DE SALUD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130713401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131346026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto de Mejoramiento Bodega de Vinos y Sistema de Disposición de RILES Peralillo, Viña Concha y Toro</t>
+          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/07/2015</t>
+          <t>21/08/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130629132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130713401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
+          <t>Proyecto de Mejoramiento Bodega de Vinos y Sistema de Disposición de RILES Peralillo, Viña Concha y Toro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>20/07/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130403394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130629132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130403394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento por Autoclavado de Residuos Especiales provenientes de Establecimientos de Salud</t>
+          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129573582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embalses de Agua para Uso Agrícola en el Predio Santa Teresita</t>
+          <t>Planta de Tratamiento por Autoclavado de Residuos Especiales provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Agrícola y Ganadera Las Casas de Calleuque Ltda.</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/12/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128851228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129573582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO POR AUTOCLAVADO DE RESIDUOS ESPECIALES PRESLEX LTDA.</t>
+          <t>Embalses de Agua para Uso Agrícola en el Predio Santa Teresita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Agrícola y Ganadera Las Casas de Calleuque Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>10/12/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128851228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/09/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128522080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO POR AUTOCLAVADO DE RESIDUOS ESPECIALES PRESLEX LTDA.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>27/09/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128522080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Incineración de Residuos Hospitalarios Residuos Hospitalarios</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7098340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Incineración de Residuos Hospitalarios Residuos Hospitalarios</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/07/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7098340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROYECTO MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
+          <t>MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>David Guillermo Cornejo Badilla</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>28/01/2011</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5287109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>PROYECTO MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>David Guillermo Cornejo Badilla</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>28/01/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5287109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE TRATAMIENTO PARA RILES CON DISPOSICIÓN EN SUELO EN VIÑAS DE ARBOLEDA DEL HUIQUE S.A (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Viña Ureta S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos de Viña Sutil S.A (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE TRATAMIENTO PARA RILES CON DISPOSICIÓN EN SUELO EN VIÑAS DE ARBOLEDA DEL HUIQUE S.A (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VIÑA SUTIL S.A.</t>
+          <t>Viña Ureta S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1959160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO PLANTA DE TRATAMIENTO DE RILES VIÑA LOS VASCOS (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos de Viña Sutil S.A (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>VIÑA SUTIL S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>31/01/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1939828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1959160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PROYECTO PLANTA DE TRATAMIENTO DE RILES VIÑA LOS VASCOS (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1939828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificaciòn Proyecto Planta de Tratamiento de RILES Viña Los Vascos S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificaciòn Proyecto Planta de Tratamiento de RILES Viña Los Vascos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>10/01/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MANEJO DE RILES DE LA BODEGA DE VINOS URETA S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Viña Ureta S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos Viña Sutil S.A. (e-seia)</t>
+          <t>MANEJO DE RILES DE LA BODEGA DE VINOS URETA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VIÑA SUTIL S.A.</t>
+          <t>Viña Ureta S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/04/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos Viña Sutil S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>VIÑA SUTIL S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/04/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PERALILLO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE PERALILLO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=901838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo El suspiro 1,2,3 y 4 Peralillo (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PERALILLO (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE PERALILLO</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2848</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/03/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=302513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=901838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo El suspiro 1,2,3 y 4 Peralillo (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2848</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/03/2004</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=302513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de RILES GUELBENZU CHILE S.A. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/07/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Peralillo (e-seia)</t>
+          <t>Sistema de Disposición de RILES GUELBENZU CHILE S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gerardo Cornejo Perez</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/05/2003</t>
+          <t>31/07/2003</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROYECTO MODIFICACIÓN EXPLOTACIÓN PUZOLANA (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Peralillo (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Gerardo Cornejo Perez</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/12/2002</t>
+          <t>27/05/2003</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=38179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>PROYECTO MODIFICACIÓN EXPLOTACIÓN PUZOLANA (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>02/12/2002</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=38179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Los Vascos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Viña Los Vascos S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales Faenadora y Frigorífico Frigocol Ltda.</t>
+          <t>Planta de Tratamiento de Riles Los Vascos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Frigocol Ltda.</t>
+          <t>Viña Los Vascos S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Grupo de Engorda El Suspiro Nº 1234</t>
+          <t>Planta de Tratamiento de Aguas Residuales Faenadora y Frigorífico Frigocol Ltda.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Comercial e Industrial Frigocol Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4300</v>
+        <v>60</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/05/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Explotación de Puzolana Yacimiento La Patagua</t>
+          <t>Grupo de Engorda El Suspiro Nº 1234</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>30</v>
+        <v>4300</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/04/1999</t>
+          <t>27/05/1999</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales de Viña Los Vascos</t>
+          <t>Explotación de Puzolana Yacimiento La Patagua</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Viña Los Vascos S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/03/1999</t>
+          <t>15/04/1999</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Grupo de Engorda El Suspiro 12345 y Sitio 2 Estado Nº 11 y 12</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales de Viña Los Vascos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Viña Los Vascos S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6600</v>
+        <v>80</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/06/1998</t>
+          <t>02/03/1999</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,43 +3304,91 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Grupo de Engorda El Suspiro 12345 y Sitio 2 Estado Nº 11 y 12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>16/06/1998</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Peralillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Planta de Pulpa Termomecánica y Papel en la Comuna de Peralillo VI Región</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>Papeles Chilenos S.A. (Pachil)</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F63" t="n">
         <v>68000</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>10/10/1995</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Peralillo</t>
         </is>

--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de Compostaje Viña Los Vascos</t>
+          <t>Embalse San Diego</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>Agricola El Boldo SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>2154</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>15/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156949842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156680907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cambio Tecnológico y Optimización Operacional Sistema de Tratamiento de RILES Viña Los Vascos</t>
+          <t>Planta de Compostaje Viña Los Vascos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146864656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156949842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Newentún</t>
+          <t>Cambio Tecnológico y Optimización Operacional Sistema de Tratamiento de RILES Viña Los Vascos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Solar TI Tres SpA.</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>400</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142552324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146864656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
+          <t>Parque Solar Newentún</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Solar TI Tres SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142552324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Disposición de Riles y Continuidad Operacional Bodega Peralillo</t>
+          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133433922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de efluente de lavado de maquinaría de productos fitosanitario</t>
+          <t>Optimización Sistema de Disposición de Riles y Continuidad Operacional Bodega Peralillo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132656175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133433922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
+          <t>Sistema de tratamiento de efluente de lavado de maquinaría de productos fitosanitario</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>25/05/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132428451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132656175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/05/2017</t>
+          <t>25/05/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132393819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132428451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/03/2017</t>
+          <t>15/05/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132268506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132393819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/01/2017</t>
+          <t>31/03/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132040768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132268506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE TRATAMIENTO DE RESIDUOS ESPECIALES PROVENIENTES DE ESTABLECIMIENTOS DE SALUD</t>
+          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>05/01/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132040768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131346026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
+          <t>AUMENTO DE CAPACIDAD DE TRATAMIENTO DE RESIDUOS ESPECIALES PROVENIENTES DE ESTABLECIMIENTOS DE SALUD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130713401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131346026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto de Mejoramiento Bodega de Vinos y Sistema de Disposición de RILES Peralillo, Viña Concha y Toro</t>
+          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/07/2015</t>
+          <t>21/08/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130629132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130713401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
+          <t>Proyecto de Mejoramiento Bodega de Vinos y Sistema de Disposición de RILES Peralillo, Viña Concha y Toro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>20/07/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130403394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130629132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130403394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento por Autoclavado de Residuos Especiales provenientes de Establecimientos de Salud</t>
+          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129573582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embalses de Agua para Uso Agrícola en el Predio Santa Teresita</t>
+          <t>Planta de Tratamiento por Autoclavado de Residuos Especiales provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Agrícola y Ganadera Las Casas de Calleuque Ltda.</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/12/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128851228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129573582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO POR AUTOCLAVADO DE RESIDUOS ESPECIALES PRESLEX LTDA.</t>
+          <t>Embalses de Agua para Uso Agrícola en el Predio Santa Teresita</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Agrícola y Ganadera Las Casas de Calleuque Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>10/12/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128851228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/09/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128522080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO POR AUTOCLAVADO DE RESIDUOS ESPECIALES PRESLEX LTDA.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>27/09/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128522080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Incineración de Residuos Hospitalarios Residuos Hospitalarios</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7098340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Incineración de Residuos Hospitalarios Residuos Hospitalarios</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/07/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7098340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROYECTO MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
+          <t>MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>David Guillermo Cornejo Badilla</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>28/01/2011</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5287109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>PROYECTO MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>David Guillermo Cornejo Badilla</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>28/01/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5287109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE TRATAMIENTO PARA RILES CON DISPOSICIÓN EN SUELO EN VIÑAS DE ARBOLEDA DEL HUIQUE S.A (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Viña Ureta S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos de Viña Sutil S.A (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE TRATAMIENTO PARA RILES CON DISPOSICIÓN EN SUELO EN VIÑAS DE ARBOLEDA DEL HUIQUE S.A (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VIÑA SUTIL S.A.</t>
+          <t>Viña Ureta S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1959160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO PLANTA DE TRATAMIENTO DE RILES VIÑA LOS VASCOS (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos de Viña Sutil S.A (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>VIÑA SUTIL S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>31/01/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1939828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1959160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PROYECTO PLANTA DE TRATAMIENTO DE RILES VIÑA LOS VASCOS (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1939828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificaciòn Proyecto Planta de Tratamiento de RILES Viña Los Vascos S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificaciòn Proyecto Planta de Tratamiento de RILES Viña Los Vascos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>10/01/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MANEJO DE RILES DE LA BODEGA DE VINOS URETA S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Viña Ureta S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos Viña Sutil S.A. (e-seia)</t>
+          <t>MANEJO DE RILES DE LA BODEGA DE VINOS URETA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VIÑA SUTIL S.A.</t>
+          <t>Viña Ureta S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/04/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos Viña Sutil S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>VIÑA SUTIL S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/04/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PERALILLO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE PERALILLO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=901838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo El suspiro 1,2,3 y 4 Peralillo (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PERALILLO (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE PERALILLO</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2848</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/03/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=302513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=901838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo El suspiro 1,2,3 y 4 Peralillo (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2848</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/03/2004</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=302513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de RILES GUELBENZU CHILE S.A. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/07/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Peralillo (e-seia)</t>
+          <t>Sistema de Disposición de RILES GUELBENZU CHILE S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gerardo Cornejo Perez</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/05/2003</t>
+          <t>31/07/2003</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROYECTO MODIFICACIÓN EXPLOTACIÓN PUZOLANA (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Peralillo (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Gerardo Cornejo Perez</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02/12/2002</t>
+          <t>27/05/2003</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=38179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>PROYECTO MODIFICACIÓN EXPLOTACIÓN PUZOLANA (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>02/12/2002</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=38179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Los Vascos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Viña Los Vascos S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales Faenadora y Frigorífico Frigocol Ltda.</t>
+          <t>Planta de Tratamiento de Riles Los Vascos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Frigocol Ltda.</t>
+          <t>Viña Los Vascos S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Grupo de Engorda El Suspiro Nº 1234</t>
+          <t>Planta de Tratamiento de Aguas Residuales Faenadora y Frigorífico Frigocol Ltda.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Comercial e Industrial Frigocol Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4300</v>
+        <v>60</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/05/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Explotación de Puzolana Yacimiento La Patagua</t>
+          <t>Grupo de Engorda El Suspiro Nº 1234</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>30</v>
+        <v>4300</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15/04/1999</t>
+          <t>27/05/1999</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales de Viña Los Vascos</t>
+          <t>Explotación de Puzolana Yacimiento La Patagua</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Viña Los Vascos S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/03/1999</t>
+          <t>15/04/1999</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Grupo de Engorda El Suspiro 12345 y Sitio 2 Estado Nº 11 y 12</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales de Viña Los Vascos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Viña Los Vascos S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6600</v>
+        <v>80</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/06/1998</t>
+          <t>02/03/1999</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,43 +3352,91 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>Grupo de Engorda El Suspiro 12345 y Sitio 2 Estado Nº 11 y 12</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>16/06/1998</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Peralillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Planta de Pulpa Termomecánica y Papel en la Comuna de Peralillo VI Región</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Papeles Chilenos S.A. (Pachil)</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F64" t="n">
         <v>68000</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>10/10/1995</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Peralillo</t>
         </is>

--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse San Diego</t>
+          <t>Planta de Compostaje Viña Los Vascos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agricola El Boldo SPA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2154</v>
+        <v>21</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156680907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156949842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de Compostaje Viña Los Vascos</t>
+          <t>Embalse San Diego</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>Agricola El Boldo SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>2154</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>15/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156949842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156680907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>25/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156949842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157732345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse San Diego</t>
+          <t>Planta de Compostaje Viña Los Vascos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agricola El Boldo SPA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2154</v>
+        <v>21</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/09/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156680907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156949842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cambio Tecnológico y Optimización Operacional Sistema de Tratamiento de RILES Viña Los Vascos</t>
+          <t>Embalse San Diego</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>Agricola El Boldo SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>2154</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146864656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156680907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar Newentún</t>
+          <t>Cambio Tecnológico y Optimización Operacional Sistema de Tratamiento de RILES Viña Los Vascos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Solar TI Tres SpA.</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>400</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142552324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146864656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
+          <t>Parque Solar Newentún</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Solar TI Tres SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/12/2017</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142552324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optimización Sistema de Disposición de Riles y Continuidad Operacional Bodega Peralillo</t>
+          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>19/12/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133433922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de efluente de lavado de maquinaría de productos fitosanitario</t>
+          <t>Optimización Sistema de Disposición de Riles y Continuidad Operacional Bodega Peralillo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/09/2017</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132656175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133433922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
+          <t>Sistema de tratamiento de efluente de lavado de maquinaría de productos fitosanitario</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25/05/2017</t>
+          <t>22/09/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132428451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132656175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/05/2017</t>
+          <t>25/05/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132393819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132428451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/03/2017</t>
+          <t>15/05/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132268506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132393819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05/01/2017</t>
+          <t>31/03/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132040768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132268506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE TRATAMIENTO DE RESIDUOS ESPECIALES PROVENIENTES DE ESTABLECIMIENTOS DE SALUD</t>
+          <t>AMPLIACIÓN DE EXPLOTACIÓN DE PUZOLANA, YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>05/01/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132040768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131346026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
+          <t>AUMENTO DE CAPACIDAD DE TRATAMIENTO DE RESIDUOS ESPECIALES PROVENIENTES DE ESTABLECIMIENTOS DE SALUD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130713401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131346026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto de Mejoramiento Bodega de Vinos y Sistema de Disposición de RILES Peralillo, Viña Concha y Toro</t>
+          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/07/2015</t>
+          <t>21/08/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130629132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130713401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
+          <t>Proyecto de Mejoramiento Bodega de Vinos y Sistema de Disposición de RILES Peralillo, Viña Concha y Toro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>20/07/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130403394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130629132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130403394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento por Autoclavado de Residuos Especiales provenientes de Establecimientos de Salud</t>
+          <t>Aumento de Capacidad de Tratamiento de Residuos Especiales Provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129573582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embalses de Agua para Uso Agrícola en el Predio Santa Teresita</t>
+          <t>Planta de Tratamiento por Autoclavado de Residuos Especiales provenientes de Establecimientos de Salud</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Agrícola y Ganadera Las Casas de Calleuque Ltda.</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/12/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128851228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129573582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO POR AUTOCLAVADO DE RESIDUOS ESPECIALES PRESLEX LTDA.</t>
+          <t>Embalses de Agua para Uso Agrícola en el Predio Santa Teresita</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>Agrícola y Ganadera Las Casas de Calleuque Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>10/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128851228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/09/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128522080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PLANTA DE TRATAMIENTO POR AUTOCLAVADO DE RESIDUOS ESPECIALES PRESLEX LTDA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>27/09/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128522080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Incineración de Residuos Hospitalarios Residuos Hospitalarios</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Preslex Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7098340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Incineración de Residuos Hospitalarios Residuos Hospitalarios</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad Preslex Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/07/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7098340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROYECTO MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
+          <t>MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>David Guillermo Cornejo Badilla</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>28/01/2011</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5287109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>PROYECTO MODIFICACIÓN II EXPLOTACIÓN PUZOLANA YACIMIENTO LA PATAGUA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>David Guillermo Cornejo Badilla</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>28/01/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5287109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN PLANTA DE TRATAMIENTO PARA RILES CON DISPOSICIÓN EN SUELO EN VIÑAS DE ARBOLEDA DEL HUIQUE S.A (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Viña Ureta S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos de Viña Sutil S.A (e-seia)</t>
+          <t>IMPLEMENTACIÓN PLANTA DE TRATAMIENTO PARA RILES CON DISPOSICIÓN EN SUELO EN VIÑAS DE ARBOLEDA DEL HUIQUE S.A (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VIÑA SUTIL S.A.</t>
+          <t>Viña Ureta S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>19/06/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1959160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO PLANTA DE TRATAMIENTO DE RILES VIÑA LOS VASCOS (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos de Viña Sutil S.A (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>VIÑA SUTIL S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/01/2007</t>
+          <t>31/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1939828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1959160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PROYECTO PLANTA DE TRATAMIENTO DE RILES VIÑA LOS VASCOS (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>19/01/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1939828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificaciòn Proyecto Planta de Tratamiento de RILES Viña Los Vascos S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Viña los Vascos S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Modificaciòn Proyecto Planta de Tratamiento de RILES Viña Los Vascos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Viña los Vascos S.A</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>10/01/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MANEJO DE RILES DE LA BODEGA DE VINOS URETA S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Viña Ureta S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos Viña Sutil S.A. (e-seia)</t>
+          <t>MANEJO DE RILES DE LA BODEGA DE VINOS URETA S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VIÑA SUTIL S.A.</t>
+          <t>Viña Ureta S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/04/2006</t>
+          <t>29/09/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1717403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos Viña Sutil S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>VIÑA SUTIL S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/04/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1409905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PERALILLO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE PERALILLO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=901838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo El suspiro 1,2,3 y 4 Peralillo (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PERALILLO (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>ILUSTRE MUNICIPALIDAD DE PERALILLO</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2848</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/03/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=302513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=901838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Mejoramiento del sistema de Tratamiento de Purines de Cerdo El suspiro 1,2,3 y 4 Peralillo (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2848</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/03/2004</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=302513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sistema de Disposición de RILES GUELBENZU CHILE S.A. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/07/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reformulación Plan Regulador Comunal de Peralillo (e-seia)</t>
+          <t>Sistema de Disposición de RILES GUELBENZU CHILE S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gerardo Cornejo Perez</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/05/2003</t>
+          <t>31/07/2003</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=121057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MODIFICACIÓN EXPLOTACIÓN PUZOLANA (e-seia)</t>
+          <t>Reformulación Plan Regulador Comunal de Peralillo (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Gerardo Cornejo Perez</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/12/2002</t>
+          <t>27/05/2003</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=38179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=88587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>PROYECTO MODIFICACIÓN EXPLOTACIÓN PUZOLANA (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>02/12/2002</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=38179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Los Vascos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Viña Los Vascos S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales Faenadora y Frigorífico Frigocol Ltda.</t>
+          <t>Planta de Tratamiento de Riles Los Vascos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Frigocol Ltda.</t>
+          <t>Viña Los Vascos S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/10/1999</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Grupo de Engorda El Suspiro Nº 1234</t>
+          <t>Planta de Tratamiento de Aguas Residuales Faenadora y Frigorífico Frigocol Ltda.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Comercial e Industrial Frigocol Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4300</v>
+        <v>60</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>27/05/1999</t>
+          <t>20/10/1999</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Explotación de Puzolana Yacimiento La Patagua</t>
+          <t>Grupo de Engorda El Suspiro Nº 1234</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Minera Río Teno S.A.</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>4300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15/04/1999</t>
+          <t>27/05/1999</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales de Viña Los Vascos</t>
+          <t>Explotación de Puzolana Yacimiento La Patagua</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Viña Los Vascos S.A.</t>
+          <t>Minera Río Teno S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/03/1999</t>
+          <t>15/04/1999</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Grupo de Engorda El Suspiro 12345 y Sitio 2 Estado Nº 11 y 12</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales de Viña Los Vascos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Viña Los Vascos S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6600</v>
+        <v>80</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/06/1998</t>
+          <t>02/03/1999</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,43 +3400,91 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>Grupo de Engorda El Suspiro 12345 y Sitio 2 Estado Nº 11 y 12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Agrícola Super Limitada</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>16/06/1998</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1159&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Peralillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Planta de Pulpa Termomecánica y Papel en la Comuna de Peralillo VI Región</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Papeles Chilenos S.A. (Pachil)</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F65" t="n">
         <v>68000</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>10/10/1995</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Peralillo</t>
         </is>

--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/11/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Peralillo.xlsx
+++ b/data/Peralillo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
